--- a/TematicaGrado/Anteproyectos2021/Actas_registroTermografico/Acta_Registro.xlsx
+++ b/TematicaGrado/Anteproyectos2021/Actas_registroTermografico/Acta_Registro.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres_2\Documents\Uniajc\GitHub\Uniajc_Tesis_OTFV\TematicaGrado\Anteproyectos2021\Actas_registroTermografico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EDA596-5F3C-4C57-917F-AE4916BD08AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341ADDF0-EB22-4374-8454-1702D8400506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3274CEA2-80A9-4953-8822-2FDE782AFF34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3274CEA2-80A9-4953-8822-2FDE782AFF34}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Formato_Acta" sheetId="2" r:id="rId2"/>
+    <sheet name="Formato_Acta (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Formato_Acta!$A$1:$L$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Formato_Acta (2)'!$A$1:$K$108</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Formato_Acta (2)'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Proyecto:</t>
   </si>
@@ -176,14 +179,169 @@
   </si>
   <si>
     <t>Observaciónes:</t>
+  </si>
+  <si>
+    <t>Ing. a cargo:</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DEL PROYECTO:</t>
+  </si>
+  <si>
+    <t>Áng. inclinación:</t>
+  </si>
+  <si>
+    <t>MÓDULO FOTOVOLTAICO:</t>
+  </si>
+  <si>
+    <t>Cond Adicionales:</t>
+  </si>
+  <si>
+    <t>CONDICIONES AMBIENTALES:</t>
+  </si>
+  <si>
+    <t>CARACTERIZACIÓN DEL REGISTRO TERMOGRÁFICO:</t>
+  </si>
+  <si>
+    <t>Áng. respecto piso:</t>
+  </si>
+  <si>
+    <t>Áng. respecto módulo:</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES:</t>
+  </si>
+  <si>
+    <t>Planta de generación solar UniLibre Cali</t>
+  </si>
+  <si>
+    <t>Cristhian Alexander Torres</t>
+  </si>
+  <si>
+    <t>Sede Valle del Lili.</t>
+  </si>
+  <si>
+    <t>Material de cubierta:</t>
+  </si>
+  <si>
+    <t>YINGLI SOLAR</t>
+  </si>
+  <si>
+    <t>275.0 WATTS</t>
+  </si>
+  <si>
+    <t>Modelo:</t>
+  </si>
+  <si>
+    <t>YL275P-29b</t>
+  </si>
+  <si>
+    <t>5.7°</t>
+  </si>
+  <si>
+    <t>Vidrio templado</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>GROWATT</t>
+  </si>
+  <si>
+    <t>TL3-US</t>
+  </si>
+  <si>
+    <t>40 kW</t>
+  </si>
+  <si>
+    <t>Tensión:</t>
+  </si>
+  <si>
+    <t>Corriente:</t>
+  </si>
+  <si>
+    <t>kW:</t>
+  </si>
+  <si>
+    <t>6.1A</t>
+  </si>
+  <si>
+    <t>5.1kW</t>
+  </si>
+  <si>
+    <t>3.85 kW/h - módulo</t>
+  </si>
+  <si>
+    <t>26°</t>
+  </si>
+  <si>
+    <t>Material particulado:</t>
+  </si>
+  <si>
+    <t>1 PPb</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.67m</t>
+  </si>
+  <si>
+    <t>1.29m</t>
+  </si>
+  <si>
+    <t>60.1°</t>
+  </si>
+  <si>
+    <t>54.4°</t>
+  </si>
+  <si>
+    <t>6.9 kW/h</t>
+  </si>
+  <si>
+    <t>469 Vac</t>
+  </si>
+  <si>
+    <t>Inversor 1: Inicio de medición.</t>
+  </si>
+  <si>
+    <t>Inversor 2: Inicio de medición.</t>
+  </si>
+  <si>
+    <t>Posicionamiento de cámara termográfica.</t>
+  </si>
+  <si>
+    <t>Ajuste de ángulo de cámara termográfica.</t>
+  </si>
+  <si>
+    <t>Inversor 1: Fin de medición.</t>
+  </si>
+  <si>
+    <t>Inversor 2: Fin de medición.</t>
+  </si>
+  <si>
+    <t>ANÁLISIS TERMOGRÁFICO A PANELES FOTOVOLTAICOS MEDIANTE 
+DIGITALIZACIÓN DE IMÁGENES.</t>
+  </si>
+  <si>
+    <t>REGISTRO FOTOGRÁFICO:</t>
+  </si>
+  <si>
+    <t>Ingeniero José Fabian Torres</t>
+  </si>
+  <si>
+    <t>Ráfaga: 3.5km/h - Prom: 0.5km/h</t>
+  </si>
+  <si>
+    <t>Índice UV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -195,7 +353,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,21 +360,12 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,33 +373,27 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -402,150 +544,706 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,6 +1300,319 @@
         <a:xfrm>
           <a:off x="571500" y="190501"/>
           <a:ext cx="1524000" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE73B9AF-E26C-41B5-9A81-5B1941543242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="190501"/>
+          <a:ext cx="1525681" cy="1355912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>804024</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134638</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C36353-74E1-4762-8081-9E88DCF33E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="916083" y="12271002"/>
+          <a:ext cx="2725996" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131108</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563606</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21977F54-DC51-4FA0-A725-FFF7FB4B3E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745255" y="12264838"/>
+          <a:ext cx="2539204" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1016373</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>16249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1018963</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>38749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315C0AE-1C58-40B3-86D3-2DE3250FCE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1128432" y="15592425"/>
+          <a:ext cx="2344619" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489355</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>165375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FDA768-3A01-4CCF-AECB-E54B0811484A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6017559" y="15528551"/>
+          <a:ext cx="2192649" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1006849</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>965803</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>174900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E58627-7304-4D2F-A729-E2F385FB943A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1118908" y="18967076"/>
+          <a:ext cx="2300983" cy="2880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>173131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651839</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>5131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA502E0-2792-4BCA-9A94-13A11E111756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5983941" y="18987807"/>
+          <a:ext cx="2388751" cy="2880000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -947,50 +1958,50 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1010,13 +2021,13 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1036,13 +2047,13 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1062,13 +2073,13 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1088,13 +2099,13 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1132,862 +2143,857 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="0.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="0.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="26" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="20"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="43" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="43" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="42"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="48"/>
-    </row>
-    <row r="29" spans="2:11" s="38" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="2:11" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="43" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="42"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="43" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="42"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="48"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="42"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="43" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="42"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="42"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="42"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="48"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="42"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="43" t="s">
+      <c r="C50" s="34"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="42"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="42"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="43" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="42"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="8"/>
     </row>
     <row r="53" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="42"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="42"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="48"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="56" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="42"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="8"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="43" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="42"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="42"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="43" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="43"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="42"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="42"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="8"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="42"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="2:11" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="48"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="18"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="39"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="20"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="20"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="131">
@@ -2079,15 +3085,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
@@ -2101,9 +3098,13 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G13:K13"/>
@@ -2115,6 +3116,8 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:K19"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="D4:K8"/>
@@ -2122,9 +3125,1372 @@
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D2498B-A3F6-4805-8D5F-A7834218D221}">
+  <dimension ref="B1:J107"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="107"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="132"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="108"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="133"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="108"/>
+      <c r="C4" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="134"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="108"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="134"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="108"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="134"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="108"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="134"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="110"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="52">
+        <v>44426</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="95">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="62"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="62"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="62"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="62"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
+    </row>
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="74"/>
+      <c r="J22" s="98"/>
+    </row>
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="98"/>
+    </row>
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+    </row>
+    <row r="25" spans="2:10" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+    </row>
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="82"/>
+      <c r="H27" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="98"/>
+    </row>
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="82"/>
+      <c r="H28" s="102">
+        <v>0.12</v>
+      </c>
+      <c r="I28" s="74"/>
+      <c r="J28" s="98"/>
+    </row>
+    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="88"/>
+    </row>
+    <row r="32" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="82"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="73"/>
+    </row>
+    <row r="35" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="88"/>
+    </row>
+    <row r="37" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="105">
+        <v>0.54</v>
+      </c>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="82"/>
+      <c r="H37" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="74"/>
+      <c r="J37" s="98"/>
+    </row>
+    <row r="38" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="82"/>
+      <c r="H38" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="74"/>
+      <c r="J38" s="98"/>
+    </row>
+    <row r="39" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="90"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="88"/>
+    </row>
+    <row r="42" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="74"/>
+      <c r="J42" s="98"/>
+    </row>
+    <row r="43" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="82"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+    </row>
+    <row r="44" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
+    </row>
+    <row r="47" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="62"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="63"/>
+    </row>
+    <row r="48" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="62"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="62"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="62"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="2:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
+    </row>
+    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="114"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="122"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="108"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="109"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="108"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="109"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="108"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="109"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="108"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="109"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="108"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="109"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="108"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="109"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="108"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="109"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="108"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="109"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="108"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="109"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="108"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="109"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="108"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="109"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="108"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="109"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="108"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="109"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="108"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="109"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="108"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="109"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="117"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="125"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="114"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="115"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="122"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="108"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="109"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="108"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="109"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="108"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="109"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="108"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="109"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="108"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="109"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="108"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="109"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="108"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="109"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="108"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="123"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="109"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="108"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="123"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="109"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="108"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="109"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="108"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="109"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="108"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="109"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="108"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="109"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="108"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="109"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="108"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="123"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="109"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="108"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="109"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="125"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="115"/>
+      <c r="I90" s="115"/>
+      <c r="J90" s="122"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="108"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="123"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="109"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="108"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="119"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="109"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="108"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="123"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="109"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="108"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="123"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="109"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="108"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="119"/>
+      <c r="F95" s="123"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="109"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="108"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="123"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="109"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="108"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="109"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="108"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="109"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="108"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="123"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="109"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="108"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="119"/>
+      <c r="F100" s="123"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="109"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="108"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="123"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="109"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="108"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="123"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="109"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="108"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="123"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="109"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="108"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="123"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="109"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="108"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="109"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="108"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="123"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="109"/>
+    </row>
+    <row r="107" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="C4:J8"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:J51"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="10" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>